--- a/pred_ohlcv/54_21/2020-01-14 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 BTC ohlcv.xlsx
@@ -1016,7 +1016,7 @@
         <v>26.61122695</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>32.90542698</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>36.42507297</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>35.24227297</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>35.24227297</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>42.81052698000001</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>49.41572698</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>49.88552698</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>45.76672698</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>45.76672698</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>45.76762698</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>43.17962698</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>43.48592698</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>37.44882698</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>36.86502698</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>37.01132698</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>28.61832698</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>19.22772698</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>19.22772698</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>19.22772698</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>11.74852698</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>14.73762698</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>11.15532785</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>11.15532785</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>3.798427850000002</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-0.6124721499999977</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>6.399919710000002</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>4.399419710000002</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>4.399419710000002</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>7.918836890000001</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>10.27562828</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>10.42322828</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>10.30470374</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>10.33827887</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>8.545778870000001</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>8.298178870000001</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>8.300478870000001</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>6.872378870000001</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-0.08472768999999847</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-7.686230650000001</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-18.83783065</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-25.85643065</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-59.53682646000001</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-57.91052646000001</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-57.91052646000001</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-57.91032646000001</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-57.96552646000001</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-61.85292646000001</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-63.86742646</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-63.92482646000001</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-64.15002646000001</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-63.97422646</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-63.97422646</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-63.95992646000001</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-60.52652646000002</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-60.53472660000001</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-60.71882660000001</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-60.71022660000001</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-60.71932660000001</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-60.71932660000001</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-60.74662660000001</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-60.62502660000001</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-60.6309266</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-60.5613266</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-60.5608266</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-60.5592266</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-61.49282659999999</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-62.54272659999999</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-57.23804523</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-20.46955897999996</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-20.46955897999996</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-19.73485897999996</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-21.97124924999996</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-19.29473956999997</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-22.51873956999997</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-29.63690118999997</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-22.35390118999997</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-20.56410118999997</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-16.96289645999997</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-19.06849645999997</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-19.73119645999997</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-19.83119645999997</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-19.83119645999997</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-19.67779645999997</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-19.67779645999997</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-18.97025004999997</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-15.56003534999997</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-20.73923534999997</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-20.73923534999997</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-21.50433534999997</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-21.73643534999997</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-21.88445995999997</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-20.74175995999996</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-21.32395995999996</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-579.3369943399998</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-584.2754204399998</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-588.8897626699999</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-595.9558626699999</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-600.7204626699998</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-603.3751626699999</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-603.3751626699999</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-596.3666626899999</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-584.0206714399999</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-575.7314886899999</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-605.17480611</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-599.18790611</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-595.0368493400001</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-595.5954493400001</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-597.2943493400001</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-599.92984934</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-594.73884934</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-594.73884934</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-594.73884934</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-596.02977312</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-596.02977312</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-657.9169900599998</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-665.0588900599998</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-665.0588900599998</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-665.0588900599998</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-667.7208288099998</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-672.3514597799998</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-673.7814597799998</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-678.3686597799998</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-686.0507597799998</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-686.0507597799998</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-688.5335597799998</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-690.8460597799998</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-681.3581375699998</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-665.9223193499996</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-664.4178193499996</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-665.1178193499996</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-664.8514923999996</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-665.8932923999996</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-667.2886923999996</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-668.1731923999996</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-676.9076202499997</v>
       </c>
       <c r="H853">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-676.9076202499997</v>
       </c>
       <c r="H854">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-679.7346202499997</v>
       </c>
       <c r="H855">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-680.0546202499997</v>
       </c>
       <c r="H856">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-681.3626827499997</v>
       </c>
       <c r="H857">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-681.3626827499997</v>
       </c>
       <c r="H858">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-681.3626827499997</v>
       </c>
       <c r="H859">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-682.4077827499998</v>
       </c>
       <c r="H860">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-678.3887827499998</v>
       </c>
       <c r="H861">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-679.9340827499998</v>
       </c>
       <c r="H862">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-680.5157827499997</v>
       </c>
       <c r="H863">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-697.8160827499997</v>
       </c>
       <c r="H864">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-702.7229110699998</v>
       </c>
       <c r="H865">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-691.9424178699996</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-693.8703178699997</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-692.6673178699997</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-635.3835961899995</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-637.0513961899995</v>
       </c>
       <c r="H965">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-636.4628961899996</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-635.0457961899996</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-638.7453961899996</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-638.1541961899997</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-636.0927961899996</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-638.0783961899996</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-637.3554961899996</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-638.6188961899996</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-635.5239961899996</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-634.4355961899996</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-629.8305042799997</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-627.1010042799996</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-625.3130809999997</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-625.3130809999997</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-623.1395904199996</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-623.1395904199996</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-629.2898516099997</v>
       </c>
       <c r="H1087">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-628.1942515899997</v>
       </c>
       <c r="H1088">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>-628.3673515899997</v>
       </c>
       <c r="H1089">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>-627.8792515899996</v>
       </c>
       <c r="H1090">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-628.0923515899997</v>
       </c>
       <c r="H1091">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>-627.1496568999996</v>
       </c>
       <c r="H1092">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>-627.5367568999997</v>
       </c>
       <c r="H1093">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-625.5389568999997</v>
       </c>
       <c r="H1094">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-614.5457906999997</v>
       </c>
       <c r="H1095">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-614.5457906999997</v>
       </c>
       <c r="H1096">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-614.5457906999997</v>
       </c>
       <c r="H1097">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>-663.7309313199999</v>
       </c>
       <c r="H1189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -32424,7 +32424,7 @@
         <v>-653.8863140599999</v>
       </c>
       <c r="H1232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1233" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>-653.7256140599999</v>
       </c>
       <c r="H1233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>-653.8782140599999</v>
       </c>
       <c r="H1234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>-653.2310140599999</v>
       </c>
       <c r="H1235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>-653.7318140599999</v>
       </c>
       <c r="H1236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1237" spans="1:8">
@@ -32554,7 +32554,7 @@
         <v>-653.7382140599999</v>
       </c>
       <c r="H1237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1238" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>-653.7382140599999</v>
       </c>
       <c r="H1238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32606,7 +32606,7 @@
         <v>-655.2907529299999</v>
       </c>
       <c r="H1239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1240" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 BTC ohlcv.xlsx
@@ -1042,7 +1042,7 @@
         <v>32.90542698</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>36.42507297</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>35.24227297</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>35.24227297</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>42.81052698000001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>49.41572698</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>49.88552698</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>45.76672698</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>45.76672698</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>45.76762698</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>43.17962698</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>43.48592698</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>37.44882698</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>36.86502698</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>37.01132698</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>28.61832698</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>19.22772698</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>19.22772698</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>19.22772698</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>11.74852698</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>14.73762698</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>11.15532785</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>11.15532785</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>3.798427850000002</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-0.6124721499999977</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>6.399919710000002</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>4.399419710000002</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>4.399419710000002</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>7.918836890000001</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>10.27562828</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>10.42322828</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>10.30470374</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>10.33827887</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>8.545778870000001</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>8.298178870000001</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>8.300478870000001</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>6.872378870000001</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-0.08472768999999847</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-18.83783065</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-59.53682646000001</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-57.91052646000001</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-57.91052646000001</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-57.91032646000001</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-57.96552646000001</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-61.85292646000001</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-63.86742646</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-63.92482646000001</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-64.15002646000001</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-63.97422646</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-63.97422646</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-63.95992646000001</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-60.52652646000002</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-60.53472660000001</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-60.71882660000001</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-60.71022660000001</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-60.71932660000001</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-60.71932660000001</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-60.74662660000001</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-60.62502660000001</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-60.6309266</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-60.5613266</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-60.5608266</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-60.5592266</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-61.49282659999999</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-62.54272659999999</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-64.23999568000001</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-63.27165432</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-63.22435432</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-63.11459619</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-63.12339619</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-63.51669619</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-63.17769619000001</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-57.23804523</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-37.93675773000002</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-39.10450298000002</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-34.89200298000002</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-43.64280298000002</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-23.47005897999996</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-20.46955897999996</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-20.46955897999996</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-19.73485897999996</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-21.97124924999996</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-19.29473956999997</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-22.51873956999997</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-29.63690118999997</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-22.35390118999997</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-20.56410118999997</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-16.96289645999997</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-19.06849645999997</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-19.73119645999997</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-19.83119645999997</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-19.83119645999997</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-19.67779645999997</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-19.67779645999997</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-18.97025004999997</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-15.56003534999997</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-20.73923534999997</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-20.73923534999997</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-21.50433534999997</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-21.73643534999997</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-21.88445995999997</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-20.74175995999996</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-21.32395995999996</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-579.3369943399998</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-584.2754204399998</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-588.8897626699999</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-595.9558626699999</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-600.7204626699998</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-603.3751626699999</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-603.3751626699999</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-596.3666626899999</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-584.0206714399999</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-575.7314886899999</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-605.17480611</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-599.18790611</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-595.0368493400001</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-595.5954493400001</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-597.2943493400001</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-599.92984934</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-594.73884934</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-594.73884934</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-594.73884934</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-596.02977312</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-596.02977312</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-657.9169900599998</v>
       </c>
       <c r="H783">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-665.0588900599998</v>
       </c>
       <c r="H785">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-665.0588900599998</v>
       </c>
       <c r="H786">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-665.0588900599998</v>
       </c>
       <c r="H789">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-667.7208288099998</v>
       </c>
       <c r="H790">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-672.3514597799998</v>
       </c>
       <c r="H791">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-673.7814597799998</v>
       </c>
       <c r="H792">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-678.3686597799998</v>
       </c>
       <c r="H793">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-686.0507597799998</v>
       </c>
       <c r="H794">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-686.0507597799998</v>
       </c>
       <c r="H795">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-688.5335597799998</v>
       </c>
       <c r="H796">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-690.8460597799998</v>
       </c>
       <c r="H797">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-685.1335782499998</v>
       </c>
       <c r="H798">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-679.2921374599998</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-679.9573374599998</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-680.5147238199999</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-678.9582238199998</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-678.5176238199998</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-680.2653375699998</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-679.6292517399999</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-679.0252570299998</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-665.9223193499996</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-664.4178193499996</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-665.1178193499996</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-664.8514923999996</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-665.8932923999996</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-667.2886923999996</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-668.1731923999996</v>
       </c>
       <c r="H845">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-681.3626827499997</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-682.4077827499998</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-678.3887827499998</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-679.9340827499998</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-680.5157827499997</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-697.8160827499997</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-702.7229110699998</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-692.6673178699997</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-691.1356178699997</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-691.1356178699997</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-635.3835961899995</v>
       </c>
       <c r="H964">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-637.0513961899995</v>
       </c>
       <c r="H965">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-636.4628961899996</v>
       </c>
       <c r="H966">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-635.0457961899996</v>
       </c>
       <c r="H967">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-638.7453961899996</v>
       </c>
       <c r="H968">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-638.1541961899997</v>
       </c>
       <c r="H969">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-636.0927961899996</v>
       </c>
       <c r="H970">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-638.0783961899996</v>
       </c>
       <c r="H971">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-637.3554961899996</v>
       </c>
       <c r="H972">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-638.6188961899996</v>
       </c>
       <c r="H973">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-635.5239961899996</v>
       </c>
       <c r="H974">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-634.4355961899996</v>
       </c>
       <c r="H975">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-629.8305042799997</v>
       </c>
       <c r="H982">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-627.1010042799996</v>
       </c>
       <c r="H983">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-625.3130809999997</v>
       </c>
       <c r="H984">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-625.3130809999997</v>
       </c>
       <c r="H985">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-623.1395904199996</v>
       </c>
       <c r="H986">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-623.1395904199996</v>
       </c>
       <c r="H987">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-629.2898516099997</v>
       </c>
       <c r="H1087">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-628.1942515899997</v>
       </c>
       <c r="H1088">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>-628.3673515899997</v>
       </c>
       <c r="H1089">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>-627.8792515899996</v>
       </c>
       <c r="H1090">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-628.0923515899997</v>
       </c>
       <c r="H1091">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>-627.1496568999996</v>
       </c>
       <c r="H1092">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>-627.5367568999997</v>
       </c>
       <c r="H1093">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-625.5389568999997</v>
       </c>
       <c r="H1094">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-614.5457906999997</v>
       </c>
       <c r="H1095">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-614.5457906999997</v>
       </c>
       <c r="H1096">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-614.5457906999997</v>
       </c>
       <c r="H1097">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>-663.7309313199999</v>
       </c>
       <c r="H1189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -32424,7 +32424,7 @@
         <v>-653.8863140599999</v>
       </c>
       <c r="H1232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1233" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>-653.7256140599999</v>
       </c>
       <c r="H1233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>-653.8782140599999</v>
       </c>
       <c r="H1234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>-653.2310140599999</v>
       </c>
       <c r="H1235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>-653.7318140599999</v>
       </c>
       <c r="H1236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237" spans="1:8">
@@ -32554,7 +32554,7 @@
         <v>-653.7382140599999</v>
       </c>
       <c r="H1237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1238" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>-653.7382140599999</v>
       </c>
       <c r="H1238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32606,7 +32606,7 @@
         <v>-655.2907529299999</v>
       </c>
       <c r="H1239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1240" spans="1:8">
